--- a/data/trans_orig/P15B_tráfico-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P15B_tráfico-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>17246</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11206</v>
+        <v>10998</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23139</v>
+        <v>22906</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5115223929152878</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3323817723922369</v>
+        <v>0.326191617332347</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6863169379762297</v>
+        <v>0.6794134454026228</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -765,19 +765,19 @@
         <v>4709</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1962</v>
+        <v>1809</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7789</v>
+        <v>7810</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4447690343038238</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1853580543321189</v>
+        <v>0.1708838080793579</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7356811954664477</v>
+        <v>0.7377338755490783</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>21</v>
@@ -786,19 +786,19 @@
         <v>21955</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>15027</v>
+        <v>15040</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>28374</v>
+        <v>28809</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4955698155418743</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3391929104898693</v>
+        <v>0.3394962067505004</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.640461289702574</v>
+        <v>0.6502957721054703</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>16469</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10576</v>
+        <v>10809</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>22509</v>
+        <v>22717</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4884776070847122</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3136830620237704</v>
+        <v>0.3205865545973772</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6676182276077632</v>
+        <v>0.6738083826676531</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -836,19 +836,19 @@
         <v>5878</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2798</v>
+        <v>2777</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8625</v>
+        <v>8778</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5552309656961762</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2643188045335527</v>
+        <v>0.2622661244509215</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.814641945667881</v>
+        <v>0.8291161919206421</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>23</v>
@@ -857,19 +857,19 @@
         <v>22347</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>15928</v>
+        <v>15493</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>29275</v>
+        <v>29262</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5044301844581257</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.359538710297426</v>
+        <v>0.3497042278945298</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6608070895101309</v>
+        <v>0.6605037932494996</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>10780</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5824</v>
+        <v>5819</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16912</v>
+        <v>17266</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3085768136519911</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.166701688864176</v>
+        <v>0.1665709978971802</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4840774969134097</v>
+        <v>0.4942057522386948</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -982,19 +982,19 @@
         <v>6160</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2161</v>
+        <v>2756</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10854</v>
+        <v>10872</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.33200279000601</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1164654548334388</v>
+        <v>0.1485235576329473</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5850244952776105</v>
+        <v>0.5859827391171645</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>16</v>
@@ -1003,19 +1003,19 @@
         <v>16940</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10937</v>
+        <v>10520</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>24668</v>
+        <v>24609</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3167021284838205</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2044656044825073</v>
+        <v>0.1966698148563233</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.461182304577164</v>
+        <v>0.4600839496370601</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>24156</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>18024</v>
+        <v>17670</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>29112</v>
+        <v>29117</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6914231863480089</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5159225030865903</v>
+        <v>0.5057942477613052</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.833298311135824</v>
+        <v>0.8334290021028199</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>11</v>
@@ -1053,19 +1053,19 @@
         <v>12393</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7699</v>
+        <v>7681</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>16392</v>
+        <v>15797</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.66799720999399</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4149755047223899</v>
+        <v>0.4140172608828355</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8835345451665633</v>
+        <v>0.8514764423670526</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>34</v>
@@ -1074,19 +1074,19 @@
         <v>36549</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>28821</v>
+        <v>28880</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>42552</v>
+        <v>42969</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6832978715161796</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5388176954228361</v>
+        <v>0.5399160503629392</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7955343955174928</v>
+        <v>0.8033301851436766</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>2884</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>847</v>
+        <v>815</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7017</v>
+        <v>6573</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1931524587439579</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05673834900083258</v>
+        <v>0.05457191468086479</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4699364942843342</v>
+        <v>0.4402123415571632</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1199,19 +1199,19 @@
         <v>2990</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>925</v>
+        <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7230</v>
+        <v>6941</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2228806498365616</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06898094830184275</v>
+        <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5389039504890196</v>
+        <v>0.5173933239226387</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -1220,19 +1220,19 @@
         <v>5874</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2744</v>
+        <v>2347</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11891</v>
+        <v>10815</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2072216966136516</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09681351971158682</v>
+        <v>0.08277864376108547</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4194910618349687</v>
+        <v>0.3815250267303297</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>12047</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7914</v>
+        <v>8358</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>14084</v>
+        <v>14116</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8068475412560421</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5300635057156656</v>
+        <v>0.559787658442837</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9432616509991675</v>
+        <v>0.9454280853191352</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>10</v>
@@ -1270,19 +1270,19 @@
         <v>10426</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6186</v>
+        <v>6475</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>12491</v>
+        <v>13416</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7771193501634384</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4610960495109805</v>
+        <v>0.4826066760773612</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9310190516981572</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>21</v>
@@ -1291,19 +1291,19 @@
         <v>22473</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>16456</v>
+        <v>17532</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>25603</v>
+        <v>26000</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7927783033863484</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5805089381650312</v>
+        <v>0.6184749732696703</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9031864802884132</v>
+        <v>0.9172213562389118</v>
       </c>
     </row>
     <row r="12">
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8539</v>
+        <v>8802</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1632080566474182</v>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4370219057014713</v>
+        <v>0.4504925651739436</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -1416,19 +1416,19 @@
         <v>3716</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1123</v>
+        <v>1130</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7109</v>
+        <v>7123</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3845250203683648</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1161677573834813</v>
+        <v>0.1169374455070394</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7355502308727511</v>
+        <v>0.7369570852485322</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5</v>
@@ -1437,19 +1437,19 @@
         <v>6905</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2578</v>
+        <v>2472</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>12857</v>
+        <v>13480</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2364539106778699</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08828546804419105</v>
+        <v>0.08463543102371164</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4402668645123221</v>
+        <v>0.4616117589431057</v>
       </c>
     </row>
     <row r="14">
@@ -1466,7 +1466,7 @@
         <v>16349</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>10999</v>
+        <v>10736</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>19538</v>
@@ -1475,7 +1475,7 @@
         <v>0.8367919433525818</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5629780942985286</v>
+        <v>0.5495074348260562</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1487,19 +1487,19 @@
         <v>5949</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2556</v>
+        <v>2542</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>8542</v>
+        <v>8535</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6154749796316352</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2644497691272488</v>
+        <v>0.2630429147514677</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8838322426165187</v>
+        <v>0.8830625544929606</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>23</v>
@@ -1508,19 +1508,19 @@
         <v>22298</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>16346</v>
+        <v>15723</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>26625</v>
+        <v>26731</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7635460893221301</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5597331354876778</v>
+        <v>0.5383882410568939</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9117145319558082</v>
+        <v>0.9153645689762883</v>
       </c>
     </row>
     <row r="15">
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5372</v>
+        <v>5345</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2115347195651896</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.573259643199547</v>
+        <v>0.5703340478372725</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6164</v>
+        <v>6148</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1030154673962474</v>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3203238538243425</v>
+        <v>0.3195241432256479</v>
       </c>
     </row>
     <row r="17">
@@ -1675,7 +1675,7 @@
         <v>7389</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3999</v>
+        <v>4026</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>9371</v>
@@ -1684,7 +1684,7 @@
         <v>0.7884652804348103</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.426740356800453</v>
+        <v>0.4296659521627277</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -1709,7 +1709,7 @@
         <v>17260</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>13078</v>
+        <v>13094</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>19242</v>
@@ -1718,7 +1718,7 @@
         <v>0.8969845326037525</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6796761461756573</v>
+        <v>0.680475856774352</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>3807</v>
+        <v>3809</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4071475862651596</v>
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8182498507484642</v>
+        <v>0.8186638264537967</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -1837,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4935</v>
+        <v>4995</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1155171301170335</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5415227196709784</v>
+        <v>0.5480695750375187</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3</v>
@@ -1855,19 +1855,19 @@
         <v>2947</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>6851</v>
+        <v>6542</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2140799842419519</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06212035946804797</v>
+        <v>0.06173835241531283</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4976148571977682</v>
+        <v>0.4752102263912307</v>
       </c>
     </row>
     <row r="20">
@@ -1884,7 +1884,7 @@
         <v>2759</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>4653</v>
@@ -1893,7 +1893,7 @@
         <v>0.5928524137348404</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1817501492515358</v>
+        <v>0.1813361735462034</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1905,7 +1905,7 @@
         <v>8061</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4179</v>
+        <v>4119</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>9114</v>
@@ -1914,7 +1914,7 @@
         <v>0.8844828698829665</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4584772803290217</v>
+        <v>0.4519304249624814</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -1926,19 +1926,19 @@
         <v>10820</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>6916</v>
+        <v>7225</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>12912</v>
+        <v>12917</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.785920015758048</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5023851428022319</v>
+        <v>0.5247897736087702</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9378796405319521</v>
+        <v>0.9382616475846872</v>
       </c>
     </row>
     <row r="21">
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4009</v>
+        <v>4925</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3012788668073609</v>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6756791554979525</v>
+        <v>0.8300688669884465</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5208</v>
+        <v>4886</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04750510339278802</v>
@@ -2063,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.230440129065213</v>
+        <v>0.2162058704071542</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3</v>
@@ -2072,19 +2072,19 @@
         <v>2861</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>7932</v>
+        <v>7904</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1002703926859405</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.028475926693018</v>
+        <v>0.02853570988948109</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2780034066493457</v>
+        <v>0.2770084049120181</v>
       </c>
     </row>
     <row r="23">
@@ -2101,7 +2101,7 @@
         <v>4146</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1924</v>
+        <v>1008</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>5933</v>
@@ -2110,7 +2110,7 @@
         <v>0.6987211331926391</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3243208445020472</v>
+        <v>0.1699311330115535</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -2122,7 +2122,7 @@
         <v>21526</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>17392</v>
+        <v>17714</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>22600</v>
@@ -2131,7 +2131,7 @@
         <v>0.952494896607212</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7695598709347895</v>
+        <v>0.7837941295928424</v>
       </c>
       <c r="P23" s="6" t="n">
         <v>1</v>
@@ -2143,19 +2143,19 @@
         <v>25672</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>20601</v>
+        <v>20629</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>27720</v>
+        <v>27719</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8997296073140595</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7219965933506542</v>
+        <v>0.7229915950879819</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.971524073306982</v>
+        <v>0.9714642901105189</v>
       </c>
     </row>
     <row r="24">
@@ -2247,19 +2247,19 @@
         <v>39763</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>29408</v>
+        <v>29914</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>51030</v>
+        <v>51437</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3230764347150515</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2389397888752874</v>
+        <v>0.2430528341255305</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4146209890218554</v>
+        <v>0.4179216967580174</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>19</v>
@@ -2268,19 +2268,19 @@
         <v>19701</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>12353</v>
+        <v>12532</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>28571</v>
+        <v>28174</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2100223889760512</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1316904500080397</v>
+        <v>0.133595793279521</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3045724217322173</v>
+        <v>0.3003397287403855</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>56</v>
@@ -2289,19 +2289,19 @@
         <v>59465</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>46697</v>
+        <v>45412</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>73896</v>
+        <v>73287</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2741784395234172</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2153103892925158</v>
+        <v>0.2093866616748172</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3407194650105247</v>
+        <v>0.3379099505237056</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>83314</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>72047</v>
+        <v>71640</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>93669</v>
+        <v>93163</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6769235652849485</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5853790109781448</v>
+        <v>0.5820783032419826</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.761060211124713</v>
+        <v>0.7569471658744694</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>71</v>
@@ -2339,19 +2339,19 @@
         <v>74105</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>65235</v>
+        <v>65632</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>81453</v>
+        <v>81274</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7899776110239487</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6954275782677825</v>
+        <v>0.6996602712596148</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8683095499919603</v>
+        <v>0.866404206720479</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>153</v>
@@ -2360,19 +2360,19 @@
         <v>157418</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>142987</v>
+        <v>143596</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>170186</v>
+        <v>171471</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7258215604765827</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6592805349894755</v>
+        <v>0.6620900494762944</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7846896107074846</v>
+        <v>0.7906133383251815</v>
       </c>
     </row>
     <row r="27">
@@ -2707,19 +2707,19 @@
         <v>26204</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18253</v>
+        <v>19099</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>33884</v>
+        <v>34407</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.446495590475037</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3110112159162191</v>
+        <v>0.3254354023822081</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5773434314005689</v>
+        <v>0.5862586727511352</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -2728,19 +2728,19 @@
         <v>13570</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8609</v>
+        <v>8530</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19408</v>
+        <v>19365</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4284036495189948</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2718070724362647</v>
+        <v>0.2692934161838891</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6127077900540795</v>
+        <v>0.6113615926253388</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>40</v>
@@ -2749,19 +2749,19 @@
         <v>39774</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>30105</v>
+        <v>30784</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>48459</v>
+        <v>48732</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4401538952302985</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3331470951535339</v>
+        <v>0.3406715890667956</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5362632920549878</v>
+        <v>0.5392818511213163</v>
       </c>
     </row>
     <row r="5">
@@ -2778,19 +2778,19 @@
         <v>32485</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>24805</v>
+        <v>24282</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>40436</v>
+        <v>39590</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.553504409524963</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4226565685994312</v>
+        <v>0.4137413272488644</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6889887840837811</v>
+        <v>0.6745645976177916</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>18</v>
@@ -2799,19 +2799,19 @@
         <v>18105</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12267</v>
+        <v>12310</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>23066</v>
+        <v>23145</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5715963504810052</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3872922099459205</v>
+        <v>0.3886384073746614</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7281929275637354</v>
+        <v>0.7307065838161109</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>52</v>
@@ -2820,19 +2820,19 @@
         <v>50590</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>41905</v>
+        <v>41632</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>60259</v>
+        <v>59580</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5598461047697015</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4637367079450123</v>
+        <v>0.4607181488786837</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.666852904846466</v>
+        <v>0.6593284109332047</v>
       </c>
     </row>
     <row r="6">
@@ -2924,19 +2924,19 @@
         <v>20276</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13092</v>
+        <v>13200</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29465</v>
+        <v>29601</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2463063786139566</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1590322451647401</v>
+        <v>0.16035543708673</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.35793164740556</v>
+        <v>0.3595900805239603</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -2945,19 +2945,19 @@
         <v>12432</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6422</v>
+        <v>6643</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>18503</v>
+        <v>19064</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3269015977550398</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1688558502166377</v>
+        <v>0.1746864855486709</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4865320621597906</v>
+        <v>0.50128752853384</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>31</v>
@@ -2966,19 +2966,19 @@
         <v>32708</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>23733</v>
+        <v>23235</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>43233</v>
+        <v>43525</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2717739122060013</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1972027086732871</v>
+        <v>0.1930666803786847</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3592338035005553</v>
+        <v>0.3616601613667454</v>
       </c>
     </row>
     <row r="8">
@@ -2995,19 +2995,19 @@
         <v>62044</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>52855</v>
+        <v>52719</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>69228</v>
+        <v>69120</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7536936213860433</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6420683525944401</v>
+        <v>0.6404099194760396</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8409677548352599</v>
+        <v>0.8396445629132699</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>24</v>
@@ -3016,19 +3016,19 @@
         <v>25598</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>19527</v>
+        <v>18966</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>31608</v>
+        <v>31387</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6730984022449602</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5134679378402095</v>
+        <v>0.4987124714661602</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8311441497833623</v>
+        <v>0.8253135144513292</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>84</v>
@@ -3037,19 +3037,19 @@
         <v>87641</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>77116</v>
+        <v>76824</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>96616</v>
+        <v>97114</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7282260877939987</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6407661964994447</v>
+        <v>0.6383398386332545</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8027972913267128</v>
+        <v>0.8069333196213154</v>
       </c>
     </row>
     <row r="9">
@@ -3141,19 +3141,19 @@
         <v>16480</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10271</v>
+        <v>9862</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25874</v>
+        <v>24497</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2913427368965908</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1815817539889781</v>
+        <v>0.1743388381524831</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4574117408099349</v>
+        <v>0.4330645554730572</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -3162,19 +3162,19 @@
         <v>6760</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11952</v>
+        <v>11943</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2300417427404627</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09678572239647082</v>
+        <v>0.09674951999116348</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4067082580625374</v>
+        <v>0.4063864209040823</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>21</v>
@@ -3183,19 +3183,19 @@
         <v>23241</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>16135</v>
+        <v>14748</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>32858</v>
+        <v>34035</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2703837979936199</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1877192189462707</v>
+        <v>0.1715747630936434</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3822742675374176</v>
+        <v>0.3959716515318147</v>
       </c>
     </row>
     <row r="11">
@@ -3212,19 +3212,19 @@
         <v>40086</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>30692</v>
+        <v>32069</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>46295</v>
+        <v>46704</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7086572631034092</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.542588259190065</v>
+        <v>0.5669354445269428</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8184182460110221</v>
+        <v>0.8256611618475168</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>22</v>
@@ -3233,19 +3233,19 @@
         <v>22628</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>17436</v>
+        <v>17445</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>26544</v>
+        <v>26545</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7699582572595373</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5932917419374627</v>
+        <v>0.5936135790959177</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9032142776035291</v>
+        <v>0.9032504800088366</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>59</v>
@@ -3254,19 +3254,19 @@
         <v>62713</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>53096</v>
+        <v>51919</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>69819</v>
+        <v>71206</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7296162020063801</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6177257324625823</v>
+        <v>0.6040283484681853</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8122807810537293</v>
+        <v>0.8284252369063567</v>
       </c>
     </row>
     <row r="12">
@@ -3358,19 +3358,19 @@
         <v>3029</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>969</v>
+        <v>952</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7972</v>
+        <v>8085</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08153314293120822</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02609434583047427</v>
+        <v>0.0256239105688073</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2146195472264179</v>
+        <v>0.2176636880620732</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -3379,7 +3379,7 @@
         <v>6132</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2209</v>
+        <v>2141</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>12404</v>
@@ -3388,10 +3388,10 @@
         <v>0.1750377164590131</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06306506076193387</v>
+        <v>0.06111477286485765</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3540742681819076</v>
+        <v>0.3540627538911356</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8</v>
@@ -3400,19 +3400,19 @@
         <v>9161</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4266</v>
+        <v>4339</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>16469</v>
+        <v>17094</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1269161858983333</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05910768150959833</v>
+        <v>0.0601114578515738</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2281723669008275</v>
+        <v>0.2368343303253736</v>
       </c>
     </row>
     <row r="14">
@@ -3429,19 +3429,19 @@
         <v>34117</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>29174</v>
+        <v>29061</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>36177</v>
+        <v>36194</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9184668570687918</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.785380452773582</v>
+        <v>0.782336311937927</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9739056541695257</v>
+        <v>0.9743760894311927</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>25</v>
@@ -3453,16 +3453,16 @@
         <v>22628</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>32823</v>
+        <v>32891</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8249622835409869</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6459257318180923</v>
+        <v>0.6459372461088647</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9369349392380661</v>
+        <v>0.9388852271351423</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>57</v>
@@ -3471,19 +3471,19 @@
         <v>63018</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>55710</v>
+        <v>55085</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>67913</v>
+        <v>67840</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8730838141016667</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.771827633099172</v>
+        <v>0.7631656696746256</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9408923184904016</v>
+        <v>0.9398885421484262</v>
       </c>
     </row>
     <row r="15">
@@ -3578,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6474</v>
+        <v>5660</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1752442322882041</v>
@@ -3587,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5010827461689151</v>
+        <v>0.4380118570196081</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -3596,19 +3596,19 @@
         <v>5221</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2078</v>
+        <v>2065</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10942</v>
+        <v>10859</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1250371476905588</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04975584326021601</v>
+        <v>0.04944559323347507</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2620351999762917</v>
+        <v>0.26006277099659</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -3617,19 +3617,19 @@
         <v>7485</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3272</v>
+        <v>3167</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>14189</v>
+        <v>14237</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1369013600305378</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05984886413082073</v>
+        <v>0.05792451590433537</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2595028093017932</v>
+        <v>0.2603703753926084</v>
       </c>
     </row>
     <row r="17">
@@ -3646,7 +3646,7 @@
         <v>10657</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6447</v>
+        <v>7261</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>12921</v>
@@ -3655,7 +3655,7 @@
         <v>0.8247557677117959</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4989172538310873</v>
+        <v>0.5619881429803919</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -3667,19 +3667,19 @@
         <v>36536</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>30815</v>
+        <v>30898</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>39679</v>
+        <v>39692</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8749628523094413</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7379648000237083</v>
+        <v>0.73993722900341</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.950244156739784</v>
+        <v>0.9505544067665249</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>43</v>
@@ -3688,19 +3688,19 @@
         <v>47193</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>40489</v>
+        <v>40441</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>51406</v>
+        <v>51511</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8630986399694621</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7404971906982067</v>
+        <v>0.739629624607391</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9401511358691793</v>
+        <v>0.9420754840956647</v>
       </c>
     </row>
     <row r="18">
@@ -3795,7 +3795,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8535</v>
+        <v>8139</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1735093252041415</v>
@@ -3804,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4934154843185115</v>
+        <v>0.4705453326014397</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -3816,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5870</v>
+        <v>5863</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07706854879771192</v>
@@ -3825,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2317403817732824</v>
+        <v>0.2314571025206776</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>4</v>
@@ -3834,19 +3834,19 @@
         <v>4954</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1029</v>
+        <v>1967</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>11993</v>
+        <v>11151</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1162026075598221</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02413389926422384</v>
+        <v>0.04615000737997672</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.281339656376853</v>
+        <v>0.2615904069490601</v>
       </c>
     </row>
     <row r="20">
@@ -3863,7 +3863,7 @@
         <v>14297</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>8763</v>
+        <v>9159</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>17298</v>
@@ -3872,7 +3872,7 @@
         <v>0.8264906747958585</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5065845156814885</v>
+        <v>0.5294546673985566</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -3884,7 +3884,7 @@
         <v>23379</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>19461</v>
+        <v>19468</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>25331</v>
@@ -3893,7 +3893,7 @@
         <v>0.922931451202288</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7682596182267176</v>
+        <v>0.7685428974793225</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -3905,19 +3905,19 @@
         <v>37675</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>30636</v>
+        <v>31478</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>41600</v>
+        <v>40662</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.883797392440178</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7186603436231471</v>
+        <v>0.7384095930509408</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9758661007357762</v>
+        <v>0.9538499926200233</v>
       </c>
     </row>
     <row r="21">
@@ -4012,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6360</v>
+        <v>6286</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09426258230627926</v>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2886931333770673</v>
+        <v>0.2853263525621274</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>7698</v>
+        <v>6625</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04071325958639135</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.142042274407332</v>
+        <v>0.1222568944308164</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4</v>
@@ -4051,19 +4051,19 @@
         <v>4283</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1046</v>
+        <v>1100</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>9627</v>
+        <v>9759</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05619136827547684</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01372876378105794</v>
+        <v>0.01443165578161682</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1263037240008661</v>
+        <v>0.1280295274968283</v>
       </c>
     </row>
     <row r="23">
@@ -4080,7 +4080,7 @@
         <v>19955</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>15672</v>
+        <v>15746</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>22032</v>
@@ -4089,7 +4089,7 @@
         <v>0.9057374176937207</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7113068666229326</v>
+        <v>0.7146736474378725</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -4101,7 +4101,7 @@
         <v>51986</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>46494</v>
+        <v>47567</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>54192</v>
@@ -4110,7 +4110,7 @@
         <v>0.9592867404136086</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.857957725592668</v>
+        <v>0.8777431055691837</v>
       </c>
       <c r="P23" s="6" t="n">
         <v>1</v>
@@ -4122,19 +4122,19 @@
         <v>71941</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>66597</v>
+        <v>66465</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>75178</v>
+        <v>75124</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9438086317245231</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8736962759991339</v>
+        <v>0.8719704725031718</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9862712362189421</v>
+        <v>0.9855683442183831</v>
       </c>
     </row>
     <row r="24">
@@ -4226,19 +4226,19 @@
         <v>73331</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>60104</v>
+        <v>59286</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>90662</v>
+        <v>89578</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2555352827993448</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2094405095363446</v>
+        <v>0.2065912829350988</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3159262754222935</v>
+        <v>0.3121480792131686</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>46</v>
@@ -4247,19 +4247,19 @@
         <v>48274</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>36948</v>
+        <v>35140</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>62214</v>
+        <v>61123</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1890086961053687</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.144664184189985</v>
+        <v>0.137585550048613</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2435895379763178</v>
+        <v>0.2393188441249156</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>115</v>
@@ -4268,19 +4268,19 @@
         <v>121605</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>101870</v>
+        <v>103575</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>141283</v>
+        <v>145328</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2242079730860666</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1878209631863896</v>
+        <v>0.1909658620308997</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2604894028154898</v>
+        <v>0.2679466037707434</v>
       </c>
     </row>
     <row r="26">
@@ -4297,19 +4297,19 @@
         <v>213641</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>196310</v>
+        <v>197394</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>226868</v>
+        <v>227686</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7444647172006551</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6840737245777064</v>
+        <v>0.6878519207868314</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7905594904636554</v>
+        <v>0.7934087170649011</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>193</v>
@@ -4318,19 +4318,19 @@
         <v>207131</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>193191</v>
+        <v>194282</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>218457</v>
+        <v>220265</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8109913038946314</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7564104620236822</v>
+        <v>0.7606811558750846</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8553358158100151</v>
+        <v>0.8624144499513872</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>399</v>
@@ -4339,19 +4339,19 @@
         <v>420772</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>401094</v>
+        <v>397049</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>440507</v>
+        <v>438802</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7757920269139333</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7395105971845102</v>
+        <v>0.7320533962292566</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8121790368136105</v>
+        <v>0.8090341379691003</v>
       </c>
     </row>
     <row r="27">
@@ -4686,19 +4686,19 @@
         <v>12099</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6080</v>
+        <v>6738</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18930</v>
+        <v>18900</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2818829578713177</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1416557236278335</v>
+        <v>0.1569819876879311</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.441034394228102</v>
+        <v>0.4403283065213047</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -4707,19 +4707,19 @@
         <v>6616</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2851</v>
+        <v>2892</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10584</v>
+        <v>10613</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3622595551984671</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1560961253053303</v>
+        <v>0.1583478938791014</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5795232264726231</v>
+        <v>0.5810785711882439</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -4728,19 +4728,19 @@
         <v>18715</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10932</v>
+        <v>11986</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>25414</v>
+        <v>25853</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3058755021085346</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1786753949645554</v>
+        <v>0.1959015857136379</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4153642709065973</v>
+        <v>0.4225348881493468</v>
       </c>
     </row>
     <row r="5">
@@ -4757,19 +4757,19 @@
         <v>30823</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>23992</v>
+        <v>24022</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>36842</v>
+        <v>36184</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7181170421286823</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.558965605771898</v>
+        <v>0.5596716934786954</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8583442763721665</v>
+        <v>0.8430180123120691</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -4778,19 +4778,19 @@
         <v>11648</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7680</v>
+        <v>7651</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15413</v>
+        <v>15372</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6377404448015329</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4204767735273769</v>
+        <v>0.4189214288117561</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8439038746946697</v>
+        <v>0.8416521061208986</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>40</v>
@@ -4799,19 +4799,19 @@
         <v>42471</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>35772</v>
+        <v>35333</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>50254</v>
+        <v>49200</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6941244978914655</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5846357290934027</v>
+        <v>0.5774651118506537</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8213246050354445</v>
+        <v>0.8040984142863622</v>
       </c>
     </row>
     <row r="6">
@@ -4903,19 +4903,19 @@
         <v>13600</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7382</v>
+        <v>8024</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20275</v>
+        <v>19892</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2674114224538736</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1451618892150794</v>
+        <v>0.157783360159836</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3986636348585085</v>
+        <v>0.3911386100113386</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -4924,19 +4924,19 @@
         <v>9027</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4790</v>
+        <v>4769</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13713</v>
+        <v>14341</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3980286451630218</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2111870165201418</v>
+        <v>0.2102871941505091</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6046395659444634</v>
+        <v>0.6323462903446768</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>22</v>
@@ -4945,19 +4945,19 @@
         <v>22627</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>14981</v>
+        <v>15818</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>31270</v>
+        <v>31665</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3076940944415145</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2037219190378453</v>
+        <v>0.2151015794876586</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4252349310734941</v>
+        <v>0.4305997780579117</v>
       </c>
     </row>
     <row r="8">
@@ -4974,19 +4974,19 @@
         <v>37257</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>30582</v>
+        <v>30965</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>43475</v>
+        <v>42833</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7325885775461265</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6013363651414915</v>
+        <v>0.6088613899886612</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8548381107849207</v>
+        <v>0.8422166398401639</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>14</v>
@@ -4995,19 +4995,19 @@
         <v>13652</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>8966</v>
+        <v>8338</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>17889</v>
+        <v>17910</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6019713548369782</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3953604340555366</v>
+        <v>0.3676537096553232</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7888129834798584</v>
+        <v>0.789712805849491</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>52</v>
@@ -5016,19 +5016,19 @@
         <v>50909</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>42266</v>
+        <v>41871</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>58555</v>
+        <v>57718</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6923059055584855</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.574765068926506</v>
+        <v>0.5694002219420884</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7962780809621548</v>
+        <v>0.7848984205123415</v>
       </c>
     </row>
     <row r="9">
@@ -5120,19 +5120,19 @@
         <v>9143</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4643</v>
+        <v>4787</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15020</v>
+        <v>15898</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2549666710538744</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1294869363082256</v>
+        <v>0.133505412832199</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4188769908857939</v>
+        <v>0.44336557987491</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -5141,19 +5141,19 @@
         <v>5214</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1833</v>
+        <v>1899</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11139</v>
+        <v>10414</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2081593090170115</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07317206484140304</v>
+        <v>0.07582308777257796</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4447089363396402</v>
+        <v>0.4157666474284109</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -5162,19 +5162,19 @@
         <v>14357</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8726</v>
+        <v>8291</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>22418</v>
+        <v>21767</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2357167093887794</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1432724890959766</v>
+        <v>0.1361296257768014</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3680787796160471</v>
+        <v>0.357381415072057</v>
       </c>
     </row>
     <row r="11">
@@ -5191,19 +5191,19 @@
         <v>26715</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>20838</v>
+        <v>19960</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>31215</v>
+        <v>31071</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7450333289461256</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5811230091142058</v>
+        <v>0.5566344201250892</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8705130636917744</v>
+        <v>0.8664945871678009</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>18</v>
@@ -5212,19 +5212,19 @@
         <v>19834</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>13909</v>
+        <v>14634</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>23215</v>
+        <v>23149</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7918406909829885</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.55529106366036</v>
+        <v>0.5842333525715897</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9268279351585971</v>
+        <v>0.924176912227422</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>42</v>
@@ -5233,19 +5233,19 @@
         <v>46549</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>38488</v>
+        <v>39139</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>52180</v>
+        <v>52615</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7642832906112206</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.631921220383953</v>
+        <v>0.6426185849279428</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8567275109040234</v>
+        <v>0.8638703742231982</v>
       </c>
     </row>
     <row r="12">
@@ -5337,19 +5337,19 @@
         <v>3790</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1036</v>
+        <v>1024</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9570</v>
+        <v>10100</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1314607970228131</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03592404598277182</v>
+        <v>0.03551437385806747</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3319072270144611</v>
+        <v>0.3502998981310116</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -5358,19 +5358,19 @@
         <v>8281</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3991</v>
+        <v>4176</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>13927</v>
+        <v>14235</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3382249838643941</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1629847553176441</v>
+        <v>0.1705425268530828</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5688039660777435</v>
+        <v>0.5813604913637056</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>10</v>
@@ -5379,19 +5379,19 @@
         <v>12072</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6160</v>
+        <v>6664</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>20820</v>
+        <v>19001</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2264135360558036</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1155243285490292</v>
+        <v>0.1249850289836735</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.390495020878407</v>
+        <v>0.3563736674408227</v>
       </c>
     </row>
     <row r="14">
@@ -5408,19 +5408,19 @@
         <v>25042</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>19262</v>
+        <v>18732</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>27796</v>
+        <v>27808</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8685392029771869</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6680927729855388</v>
+        <v>0.6497001018689879</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9640759540172282</v>
+        <v>0.9644856261419325</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>15</v>
@@ -5429,19 +5429,19 @@
         <v>16204</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>10558</v>
+        <v>10250</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>20494</v>
+        <v>20309</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.661775016135606</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4311960339222566</v>
+        <v>0.4186395086362943</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8370152446823564</v>
+        <v>0.8294574731469183</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>38</v>
@@ -5450,19 +5450,19 @@
         <v>41246</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>32498</v>
+        <v>34317</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>47158</v>
+        <v>46654</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7735864639441965</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6095049791215931</v>
+        <v>0.6436263325591771</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8844756714509708</v>
+        <v>0.8750149710163265</v>
       </c>
     </row>
     <row r="15">
@@ -5554,19 +5554,19 @@
         <v>3235</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7722</v>
+        <v>7501</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2312722420747854</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07171377129344096</v>
+        <v>0.07107015076262903</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5520061293955344</v>
+        <v>0.5361936200042814</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -5578,7 +5578,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4831</v>
+        <v>4296</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0321793258885524</v>
@@ -5587,7 +5587,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1591498786240038</v>
+        <v>0.1415012512059761</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -5596,19 +5596,19 @@
         <v>4212</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1059</v>
+        <v>1045</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>9530</v>
+        <v>9653</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09498287098680361</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02387126545044712</v>
+        <v>0.02356889006261184</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.214895706253228</v>
+        <v>0.2176690135460106</v>
       </c>
     </row>
     <row r="17">
@@ -5625,19 +5625,19 @@
         <v>10754</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6267</v>
+        <v>6488</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>12986</v>
+        <v>12995</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7687277579252145</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4479938706044657</v>
+        <v>0.4638063799957177</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.928286228706559</v>
+        <v>0.928929849237371</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>25</v>
@@ -5646,7 +5646,7 @@
         <v>29381</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>25527</v>
+        <v>26062</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>30358</v>
@@ -5655,7 +5655,7 @@
         <v>0.9678206741114476</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8408501213759972</v>
+        <v>0.8584987487940239</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -5667,19 +5667,19 @@
         <v>40135</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>34817</v>
+        <v>34694</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>43288</v>
+        <v>43302</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9050171290131964</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7851042937467739</v>
+        <v>0.7823309864539892</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.976128734549553</v>
+        <v>0.9764311099373881</v>
       </c>
     </row>
     <row r="18">
@@ -5787,7 +5787,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5414</v>
+        <v>5508</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03578824022362678</v>
@@ -5796,7 +5796,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1847628856581412</v>
+        <v>0.1879853091100891</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1</v>
@@ -5808,7 +5808,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>5411</v>
+        <v>5351</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02606402251820669</v>
@@ -5817,7 +5817,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1344846959928514</v>
+        <v>0.1330042980393519</v>
       </c>
     </row>
     <row r="20">
@@ -5847,7 +5847,7 @@
         <v>28252</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>23887</v>
+        <v>23793</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>29301</v>
@@ -5856,7 +5856,7 @@
         <v>0.9642117597763732</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8152371143418582</v>
+        <v>0.8120146908899141</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -5868,7 +5868,7 @@
         <v>39184</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>34822</v>
+        <v>34882</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>40233</v>
@@ -5877,7 +5877,7 @@
         <v>0.9739359774817933</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8655153040071488</v>
+        <v>0.8669957019606465</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>1</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3308</v>
+        <v>3296</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05519120892211719</v>
@@ -5984,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2300347713697886</v>
+        <v>0.2292174058703022</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -5996,7 +5996,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>7126</v>
+        <v>6581</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02916451325951012</v>
@@ -6005,7 +6005,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1724729692517969</v>
+        <v>0.1592881070021445</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2</v>
@@ -6017,7 +6017,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6929</v>
+        <v>7153</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0358835944979503</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.124398553621908</v>
+        <v>0.1284261554215406</v>
       </c>
     </row>
     <row r="23">
@@ -6043,7 +6043,7 @@
         <v>13585</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>11071</v>
+        <v>11083</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>14379</v>
@@ -6052,7 +6052,7 @@
         <v>0.9448087910778828</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7699652286302113</v>
+        <v>0.770782594129698</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -6064,7 +6064,7 @@
         <v>40113</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>34192</v>
+        <v>34737</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>41318</v>
@@ -6073,7 +6073,7 @@
         <v>0.9708354867404899</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8275270307482047</v>
+        <v>0.840711892997857</v>
       </c>
       <c r="P23" s="6" t="n">
         <v>1</v>
@@ -6085,7 +6085,7 @@
         <v>53698</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>48768</v>
+        <v>48544</v>
       </c>
       <c r="T23" s="5" t="n">
         <v>55697</v>
@@ -6094,7 +6094,7 @@
         <v>0.9641164055020497</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8756014463780921</v>
+        <v>0.8715738445784585</v>
       </c>
       <c r="W23" s="6" t="n">
         <v>1</v>
@@ -6189,19 +6189,19 @@
         <v>42660</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>32470</v>
+        <v>32501</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>55711</v>
+        <v>56229</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2157085934024668</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1641820121832644</v>
+        <v>0.1643357651045166</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2816978945282498</v>
+        <v>0.2843156618762898</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>31</v>
@@ -6210,19 +6210,19 @@
         <v>32369</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>22719</v>
+        <v>22600</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>43988</v>
+        <v>43647</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1690706121728705</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1186644548354692</v>
+        <v>0.1180463624590602</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.22975898931318</v>
+        <v>0.2279754496763468</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>72</v>
@@ -6231,19 +6231,19 @@
         <v>75030</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>60745</v>
+        <v>59660</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>93206</v>
+        <v>92264</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1927680054757041</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1560662216198467</v>
+        <v>0.1532792721136718</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2394675345479297</v>
+        <v>0.2370460040923512</v>
       </c>
     </row>
     <row r="26">
@@ -6260,19 +6260,19 @@
         <v>155109</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>142058</v>
+        <v>141540</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>165299</v>
+        <v>165268</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7842914065975332</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7183021054717502</v>
+        <v>0.7156843381237098</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8358179878167354</v>
+        <v>0.8356642348954828</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>141</v>
@@ -6281,19 +6281,19 @@
         <v>159084</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>147465</v>
+        <v>147806</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>168734</v>
+        <v>168853</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8309293878271296</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7702410106868209</v>
+        <v>0.7720245503236532</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8813355451645312</v>
+        <v>0.8819536375409399</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>291</v>
@@ -6302,19 +6302,19 @@
         <v>314193</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>296017</v>
+        <v>296959</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>328478</v>
+        <v>329563</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8072319945242959</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7605324654520703</v>
+        <v>0.7629539959076491</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8439337783801534</v>
+        <v>0.8467207278863284</v>
       </c>
     </row>
     <row r="27">
@@ -6652,7 +6652,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12733</v>
+        <v>12427</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.138452969549638</v>
@@ -6661,7 +6661,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6152159984332672</v>
+        <v>0.6004482982134846</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -6670,19 +6670,19 @@
         <v>15957</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8476</v>
+        <v>8561</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20970</v>
+        <v>20831</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.706320319006486</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3751635194891912</v>
+        <v>0.3789275536794887</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9282208057393643</v>
+        <v>0.9220449963389442</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -6691,19 +6691,19 @@
         <v>18823</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9644</v>
+        <v>9087</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>29811</v>
+        <v>29549</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4348136062861777</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2227771959306911</v>
+        <v>0.2099097541304692</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6886497767840465</v>
+        <v>0.6825929149071904</v>
       </c>
     </row>
     <row r="5">
@@ -6720,7 +6720,7 @@
         <v>17831</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7964</v>
+        <v>8270</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>20697</v>
@@ -6729,7 +6729,7 @@
         <v>0.861547030450362</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3847840015667335</v>
+        <v>0.3995517017865177</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -6741,19 +6741,19 @@
         <v>6635</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1622</v>
+        <v>1761</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>14116</v>
+        <v>14031</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.2936796809935141</v>
+        <v>0.293679680993514</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07177919426063577</v>
+        <v>0.07795500366105614</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6248364805108092</v>
+        <v>0.6210724463205115</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>11</v>
@@ -6762,19 +6762,19 @@
         <v>24466</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>13478</v>
+        <v>13740</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>33645</v>
+        <v>34202</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5651863937138224</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3113502232159535</v>
+        <v>0.3174070850928091</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7772228040693089</v>
+        <v>0.7900902458695306</v>
       </c>
     </row>
     <row r="6">
@@ -6866,19 +6866,19 @@
         <v>14252</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6454</v>
+        <v>7051</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22658</v>
+        <v>22672</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4293259306952956</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1944317370531374</v>
+        <v>0.2123997228302371</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6825431659495298</v>
+        <v>0.682962077313794</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -6887,19 +6887,19 @@
         <v>3028</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>742</v>
+        <v>750</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7263</v>
+        <v>7059</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.197444481461102</v>
+        <v>0.1974444814611021</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0483736629135177</v>
+        <v>0.04891117380142298</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4735820335611934</v>
+        <v>0.4602330977265476</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>10</v>
@@ -6908,19 +6908,19 @@
         <v>17280</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9519</v>
+        <v>9007</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>28219</v>
+        <v>27495</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.3560505499320902</v>
+        <v>0.3560505499320903</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1961349893239371</v>
+        <v>0.1855863539342884</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5814474638868454</v>
+        <v>0.566515059731009</v>
       </c>
     </row>
     <row r="8">
@@ -6937,19 +6937,19 @@
         <v>18944</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>10538</v>
+        <v>10524</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>26742</v>
+        <v>26145</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.5706740693047045</v>
+        <v>0.5706740693047044</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.31745683405047</v>
+        <v>0.3170379226862061</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8055682629468627</v>
+        <v>0.7876002771697629</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>12</v>
@@ -6958,19 +6958,19 @@
         <v>12309</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>8074</v>
+        <v>8278</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>14595</v>
+        <v>14587</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8025555185388979</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5264179664388072</v>
+        <v>0.5397669022734526</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9516263370864823</v>
+        <v>0.9510888261985772</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>24</v>
@@ -6979,19 +6979,19 @@
         <v>31253</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>20314</v>
+        <v>21038</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>39014</v>
+        <v>39526</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6439494500679097</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4185525361131546</v>
+        <v>0.4334849402689909</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8038650106760629</v>
+        <v>0.8144136460657121</v>
       </c>
     </row>
     <row r="9">
@@ -7083,19 +7083,19 @@
         <v>14062</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8454</v>
+        <v>8578</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21388</v>
+        <v>20849</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3647816543557265</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2192959904362496</v>
+        <v>0.2225310813698613</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5548391018647025</v>
+        <v>0.5408398059350913</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -7104,19 +7104,19 @@
         <v>10958</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6597</v>
+        <v>6631</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15469</v>
+        <v>15742</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3596553109247603</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2165142640099343</v>
+        <v>0.2176539250871575</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5077252884513177</v>
+        <v>0.5166811796795139</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>27</v>
@@ -7125,19 +7125,19 @@
         <v>25020</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17760</v>
+        <v>18402</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>33065</v>
+        <v>33561</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.362518607423464</v>
+        <v>0.3625186074234641</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2573335884136989</v>
+        <v>0.2666278231496894</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4790961866688653</v>
+        <v>0.4862719789107136</v>
       </c>
     </row>
     <row r="11">
@@ -7154,19 +7154,19 @@
         <v>24487</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>17161</v>
+        <v>17700</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>30095</v>
+        <v>29971</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6352183456442735</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4451608981352966</v>
+        <v>0.4591601940649088</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7807040095637504</v>
+        <v>0.7774689186301387</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>28</v>
@@ -7175,19 +7175,19 @@
         <v>19510</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>14999</v>
+        <v>14726</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>23871</v>
+        <v>23837</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6403446890752398</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.492274711548682</v>
+        <v>0.4833188203204859</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7834857359900655</v>
+        <v>0.7823460749128422</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>50</v>
@@ -7196,19 +7196,19 @@
         <v>43996</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>35951</v>
+        <v>35455</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>51256</v>
+        <v>50614</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.6374813925765359</v>
+        <v>0.637481392576536</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5209038133311347</v>
+        <v>0.5137280210892871</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7426664115863008</v>
+        <v>0.7333721768503109</v>
       </c>
     </row>
     <row r="12">
@@ -7300,19 +7300,19 @@
         <v>16950</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10361</v>
+        <v>10978</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24713</v>
+        <v>25489</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.3091852245686865</v>
+        <v>0.3091852245686864</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1889971819096702</v>
+        <v>0.2002509329035439</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4507865055932073</v>
+        <v>0.4649269093009907</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -7321,19 +7321,19 @@
         <v>4947</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2205</v>
+        <v>2176</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9137</v>
+        <v>9351</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1516683599791691</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06758806950109006</v>
+        <v>0.06670477976317585</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2801230225622729</v>
+        <v>0.2866890427383423</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>23</v>
@@ -7342,19 +7342,19 @@
         <v>21897</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>14972</v>
+        <v>14611</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>31545</v>
+        <v>30411</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2504284502080588</v>
+        <v>0.2504284502080587</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.171226940101696</v>
+        <v>0.1670984786778112</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3607635835235362</v>
+        <v>0.3477965721944259</v>
       </c>
     </row>
     <row r="14">
@@ -7371,19 +7371,19 @@
         <v>37873</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>30110</v>
+        <v>29334</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>44462</v>
+        <v>43845</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6908147754313136</v>
+        <v>0.6908147754313135</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5492134944067923</v>
+        <v>0.5350730906990092</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8110028180903296</v>
+        <v>0.7997490670964567</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>43</v>
@@ -7392,19 +7392,19 @@
         <v>27670</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>23480</v>
+        <v>23266</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>30412</v>
+        <v>30441</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8483316400208308</v>
+        <v>0.8483316400208309</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7198769774377271</v>
+        <v>0.7133109572616578</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.93241193049891</v>
+        <v>0.9332952202368241</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>79</v>
@@ -7413,19 +7413,19 @@
         <v>65543</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>55895</v>
+        <v>57029</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>72468</v>
+        <v>72829</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7495715497919413</v>
+        <v>0.7495715497919411</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6392364164764637</v>
+        <v>0.6522034278055737</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8287730598983046</v>
+        <v>0.8329015213221889</v>
       </c>
     </row>
     <row r="15">
@@ -7517,19 +7517,19 @@
         <v>7069</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3357</v>
+        <v>3310</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12338</v>
+        <v>12543</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2244366646238157</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1066006223538549</v>
+        <v>0.1051043341335922</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3917242997953976</v>
+        <v>0.3982305300446226</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -7538,19 +7538,19 @@
         <v>7759</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4018</v>
+        <v>4254</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11766</v>
+        <v>11893</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.202556049083186</v>
+        <v>0.2025560490831859</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1049023727562512</v>
+        <v>0.111051745028145</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3071678399193851</v>
+        <v>0.3104941909872033</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>20</v>
@@ -7559,19 +7559,19 @@
         <v>14828</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9989</v>
+        <v>9375</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21482</v>
+        <v>21522</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2124293299882765</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1431156931967146</v>
+        <v>0.1343119295102064</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3077591029024831</v>
+        <v>0.3083404916742152</v>
       </c>
     </row>
     <row r="17">
@@ -7588,19 +7588,19 @@
         <v>24427</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>19158</v>
+        <v>18953</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>28139</v>
+        <v>28186</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7755633353761844</v>
+        <v>0.7755633353761842</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6082757002046026</v>
+        <v>0.6017694699553778</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.893399377646145</v>
+        <v>0.894895665866408</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>50</v>
@@ -7609,19 +7609,19 @@
         <v>30545</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>26538</v>
+        <v>26411</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>34286</v>
+        <v>34050</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7974439509168143</v>
+        <v>0.7974439509168137</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.692832160080615</v>
+        <v>0.6895058090127962</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8950976272437488</v>
+        <v>0.888948254971855</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>76</v>
@@ -7630,19 +7630,19 @@
         <v>54972</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>48318</v>
+        <v>48278</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>59811</v>
+        <v>60425</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7875706700117235</v>
+        <v>0.7875706700117233</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.692240897097517</v>
+        <v>0.6916595083257843</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8568843068032854</v>
+        <v>0.8656880704897935</v>
       </c>
     </row>
     <row r="18">
@@ -7734,19 +7734,19 @@
         <v>3814</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1355</v>
+        <v>1413</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7334</v>
+        <v>7319</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2102622381906129</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07469695949449784</v>
+        <v>0.07788049755914521</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4043808986017174</v>
+        <v>0.4035455160166479</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -7755,19 +7755,19 @@
         <v>5368</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2603</v>
+        <v>2577</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9045</v>
+        <v>9033</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1482462693107365</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07189253109354539</v>
+        <v>0.07115776624308967</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2498094647060699</v>
+        <v>0.2494804459578253</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>15</v>
@@ -7776,19 +7776,19 @@
         <v>9181</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4952</v>
+        <v>5633</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>13946</v>
+        <v>14430</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1689428370779677</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09111161671219453</v>
+        <v>0.1036570552926973</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2566193642078075</v>
+        <v>0.2655223943658782</v>
       </c>
     </row>
     <row r="20">
@@ -7805,19 +7805,19 @@
         <v>14323</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>10803</v>
+        <v>10818</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16782</v>
+        <v>16724</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7897377618093872</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5956191013982828</v>
+        <v>0.596454483983352</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9253030405055024</v>
+        <v>0.9221195024408548</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>57</v>
@@ -7826,19 +7826,19 @@
         <v>30841</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>27164</v>
+        <v>27176</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>33606</v>
+        <v>33632</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8517537306892632</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7501905352939303</v>
+        <v>0.7505195540421747</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9281074689064549</v>
+        <v>0.9288422337569103</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>78</v>
@@ -7847,19 +7847,19 @@
         <v>45165</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>40400</v>
+        <v>39916</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>49394</v>
+        <v>48713</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8310571629220324</v>
+        <v>0.8310571629220322</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7433806357921923</v>
+        <v>0.7344776056341219</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.908888383287805</v>
+        <v>0.8963429447073027</v>
       </c>
     </row>
     <row r="21">
@@ -7954,16 +7954,16 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1712</v>
+        <v>1964</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.01497178876364573</v>
+        <v>0.01497178876364574</v>
       </c>
       <c r="H22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07440966673008186</v>
+        <v>0.0853550419496235</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -7972,19 +7972,19 @@
         <v>3008</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>6462</v>
+        <v>6722</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05310201808929819</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02012449549107164</v>
+        <v>0.02001380950278674</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1140689161979278</v>
+        <v>0.1186485857934744</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6</v>
@@ -7993,19 +7993,19 @@
         <v>3353</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1284</v>
+        <v>1228</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>7231</v>
+        <v>6815</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04208774316413662</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01611193995904769</v>
+        <v>0.01541776674212518</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09076698033085885</v>
+        <v>0.08554724325936146</v>
       </c>
     </row>
     <row r="23">
@@ -8022,16 +8022,16 @@
         <v>22668</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>21301</v>
+        <v>21049</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>23013</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9850282112363542</v>
+        <v>0.9850282112363543</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9255903332699189</v>
+        <v>0.9146449580503736</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -8043,19 +8043,19 @@
         <v>53646</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>50192</v>
+        <v>49932</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>55514</v>
+        <v>55520</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9468979819107018</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8859310838020721</v>
+        <v>0.8813514142065257</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9798755045089284</v>
+        <v>0.9799861904972131</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>143</v>
@@ -8064,19 +8064,19 @@
         <v>76314</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>72436</v>
+        <v>72852</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>78383</v>
+        <v>78439</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9579122568358632</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9092330196691413</v>
+        <v>0.9144527567406384</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9838880600409524</v>
+        <v>0.9845822332578749</v>
       </c>
     </row>
     <row r="24">
@@ -8168,19 +8168,19 @@
         <v>59357</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>44562</v>
+        <v>45697</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>73981</v>
+        <v>77289</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2699134302077135</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2026383402465131</v>
+        <v>0.2077981740745277</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3364132668823666</v>
+        <v>0.3514563479281673</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>59</v>
@@ -8189,19 +8189,19 @@
         <v>51025</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>39633</v>
+        <v>38743</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>67020</v>
+        <v>66894</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2197644177356747</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1706999571345903</v>
+        <v>0.1668654857630554</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2886570450938562</v>
+        <v>0.2881133671487925</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>109</v>
@@ -8210,19 +8210,19 @@
         <v>110382</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>92154</v>
+        <v>90633</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>130724</v>
+        <v>130427</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2441584401993203</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2038398637151009</v>
+        <v>0.200474093143238</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2891545625034595</v>
+        <v>0.2884977100951789</v>
       </c>
     </row>
     <row r="26">
@@ -8239,19 +8239,19 @@
         <v>160554</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>145930</v>
+        <v>142622</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>175349</v>
+        <v>174214</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7300865697922864</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6635867331176338</v>
+        <v>0.6485436520718326</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7973616597534872</v>
+        <v>0.7922018259254718</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>300</v>
@@ -8260,19 +8260,19 @@
         <v>181155</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>165160</v>
+        <v>165286</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>192547</v>
+        <v>193437</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.7802355822643254</v>
+        <v>0.7802355822643252</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.711342954906144</v>
+        <v>0.7118866328512083</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8293000428654097</v>
+        <v>0.8331345142369447</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>461</v>
@@ -8281,19 +8281,19 @@
         <v>341709</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>321367</v>
+        <v>321664</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>359937</v>
+        <v>361458</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7558415598006797</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7108454374965403</v>
+        <v>0.7115022899048212</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7961601362848989</v>
+        <v>0.7995259068567623</v>
       </c>
     </row>
     <row r="27">
